--- a/Speech.xlsx
+++ b/Speech.xlsx
@@ -343,6 +343,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -350,7 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,7 +387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,8 +417,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +449,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -448,17 +465,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,21 +485,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="52">
     <fill>
@@ -609,19 +609,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,163 +741,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,6 +818,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -838,54 +853,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,12 +882,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,130 +938,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1474,8 +1474,8 @@
   <sheetPr/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
